--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Order Date</t>
   </si>
@@ -28,7 +28,28 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>11/21/2023, 10:53:20 AM</t>
+    <t>11/27/2023, 2:31:44 PM</t>
+  </si>
+  <si>
+    <t>Gucci Bags</t>
+  </si>
+  <si>
+    <t>$999.00</t>
+  </si>
+  <si>
+    <t>11/27/2023, 2:33:17 PM</t>
+  </si>
+  <si>
+    <t>Louis Vuitton</t>
+  </si>
+  <si>
+    <t>$7099.00</t>
+  </si>
+  <si>
+    <t>11/27/2023, 2:35:28 PM</t>
+  </si>
+  <si>
+    <t>11/27/2023, 2:40:34 PM</t>
   </si>
   <si>
     <t>Zara FLANNEL TOP</t>
@@ -37,19 +58,25 @@
     <t>$6099.00</t>
   </si>
   <si>
-    <t>Louis Vuitton</t>
-  </si>
-  <si>
-    <t>$7099.00</t>
-  </si>
-  <si>
-    <t>11/22/2023, 10:53:20 AM</t>
-  </si>
-  <si>
-    <t>Amani Exchange</t>
-  </si>
-  <si>
-    <t>$1122.00</t>
+    <t>11/27/2023, 2:41:15 PM</t>
+  </si>
+  <si>
+    <t>11/27/2023, 2:41:34 PM</t>
+  </si>
+  <si>
+    <t>11/28/2023, 6:37:56 PM</t>
+  </si>
+  <si>
+    <t>11/28/2023, 6:49:14 PM</t>
+  </si>
+  <si>
+    <t>11/29/2023, 12:24:50 PM</t>
+  </si>
+  <si>
+    <t>11/29/2023, 12:25:35 PM</t>
+  </si>
+  <si>
+    <t>11/29/2023, 12:27:39 PM</t>
   </si>
 </sst>
 </file>
@@ -426,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,36 +492,206 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
